--- a/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
+++ b/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82765\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0292FE78-9775-451C-B4A0-D2E01312032D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629564A0-94CC-4BD3-8807-3C6D88360F3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="106">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1262,12 +1262,128 @@
     <t>参与页面的详细设计</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2020.01.11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计报告的初步编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计报告的编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组交流合作编写文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QSqlQueryModle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QT Event</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据老师对知识的讲解进行学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自学。结果：学习了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关知识</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="67">
+  <fonts count="69">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1688,6 +1804,18 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -2367,7 +2495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2689,6 +2817,22 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2781,7 +2925,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2793,6 +2937,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2801,7 +2961,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2843,44 +3003,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -17477,17 +17613,17 @@
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" s="24" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
     </row>
     <row r="16" spans="1:9" s="24" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="28"/>
@@ -17809,8 +17945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4469F8DE-1282-404F-A51B-CF5242391DAD}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17822,24 +17958,24 @@
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.8984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17856,19 +17992,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="104" t="s">
+        <v>69</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="101" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -17888,40 +18032,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="C5" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="C6" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="C7" s="148" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -17940,19 +18090,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17961,107 +18111,123 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="35">
+        <v>2</v>
+      </c>
+      <c r="G10" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="35">
+        <v>4</v>
+      </c>
+      <c r="G11" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+        <v>6</v>
+      </c>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18081,57 +18247,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18219,17 +18385,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18278,40 +18444,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18330,19 +18496,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18351,107 +18517,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18471,57 +18637,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18609,17 +18775,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18668,40 +18834,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18720,19 +18886,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18741,107 +18907,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18861,57 +19027,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18999,17 +19165,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19058,40 +19224,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19110,19 +19276,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19131,107 +19297,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19251,57 +19417,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19389,17 +19555,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19448,40 +19614,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19500,19 +19666,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19521,107 +19687,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19641,57 +19807,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19779,17 +19945,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19838,40 +20004,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19890,19 +20056,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19911,107 +20077,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20031,57 +20197,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20169,17 +20335,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20228,40 +20394,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20280,19 +20446,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20301,107 +20467,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20421,57 +20587,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20559,17 +20725,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20618,40 +20784,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20670,19 +20836,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20691,107 +20857,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20811,57 +20977,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20949,17 +21115,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21008,40 +21174,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21060,19 +21226,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21081,107 +21247,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21201,57 +21367,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21620,16 +21786,16 @@
       <c r="H15" s="78"/>
     </row>
     <row r="16" spans="1:9" s="79" customFormat="1" ht="45">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
     </row>
     <row r="17" spans="1:8" s="79" customFormat="1" ht="16.2">
       <c r="A17" s="80"/>
@@ -21819,15 +21985,15 @@
       <c r="A34" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
       <c r="E34" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
     </row>
     <row r="35" spans="1:8" s="72" customFormat="1" ht="18">
       <c r="A35" s="77"/>
@@ -21904,17 +22070,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21941,7 +22107,7 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="101" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -21969,46 +22135,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22027,19 +22193,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22048,20 +22214,20 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>1.5</v>
       </c>
-      <c r="G10" s="147" t="s">
+      <c r="G10" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22069,20 +22235,20 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="G11" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22090,20 +22256,20 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22111,20 +22277,20 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="148" t="s">
+      <c r="G13" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="152" t="s">
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22132,20 +22298,20 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35">
         <v>0.5</v>
       </c>
-      <c r="G14" s="148" t="s">
+      <c r="G14" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="152" t="s">
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22153,42 +22319,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22208,57 +22374,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22346,17 +22512,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22383,7 +22549,7 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="101" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -22411,46 +22577,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22469,19 +22635,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22490,20 +22656,20 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="148" t="s">
+      <c r="G10" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22511,20 +22677,20 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="149" t="s">
+      <c r="C11" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>8</v>
       </c>
-      <c r="G11" s="148" t="s">
+      <c r="G11" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22532,20 +22698,20 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22553,68 +22719,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22634,57 +22800,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22772,17 +22938,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22799,7 +22965,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="103" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -22811,7 +22977,7 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="101" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -22839,46 +23005,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22897,19 +23063,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22918,20 +23084,20 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="148" t="s">
+      <c r="G10" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22939,20 +23105,20 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="149" t="s">
+      <c r="C11" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="148" t="s">
+      <c r="G11" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22960,20 +23126,20 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22981,68 +23147,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23062,57 +23228,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23180,7 +23346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF80685A-38EB-40CD-973E-8672D2C9CA07}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:J12"/>
     </sheetView>
   </sheetViews>
@@ -23200,17 +23366,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23227,7 +23393,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="103" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -23239,7 +23405,7 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="101" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -23267,46 +23433,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23325,19 +23491,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23346,20 +23512,20 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="147" t="s">
+      <c r="G10" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -23367,20 +23533,20 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="G11" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -23388,20 +23554,20 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -23409,68 +23575,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23490,57 +23656,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23608,7 +23774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9D3DD3-0067-4AFA-9C93-6220DF43A2DB}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14:I14"/>
     </sheetView>
   </sheetViews>
@@ -23628,17 +23794,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23655,7 +23821,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="103" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -23667,7 +23833,7 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="101" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -23693,46 +23859,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23751,19 +23917,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23772,20 +23938,20 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="148" t="s">
+      <c r="G10" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -23793,20 +23959,20 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="148" t="s">
+      <c r="G11" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -23814,20 +23980,20 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -23835,68 +24001,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23916,57 +24082,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24034,7 +24200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34830844-586B-4BDD-8A89-567EB3A6458C}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G16" sqref="G16:I16"/>
     </sheetView>
   </sheetViews>
@@ -24054,17 +24220,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24081,7 +24247,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="103" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -24093,7 +24259,7 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="101" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -24119,46 +24285,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24177,19 +24343,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24198,20 +24364,20 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="148" t="s">
+      <c r="G10" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="152" t="s">
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -24219,20 +24385,20 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="G11" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="152" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -24240,20 +24406,20 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="152" t="s">
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -24264,17 +24430,17 @@
       <c r="C13" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="147" t="s">
+      <c r="G13" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="152" t="s">
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
     </row>
@@ -24282,55 +24448,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24350,57 +24516,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">

--- a/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
+++ b/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82765\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629564A0-94CC-4BD3-8807-3C6D88360F3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D533EA-012B-4A96-9B4D-ED042E352890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="112">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1376,6 +1376,55 @@
       </rPr>
       <t>相关知识</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体框架的完善搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>qt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信号和槽，事件过滤器</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善酒店框架的搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课学习，课后复习自学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组讨论共同完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2843,116 +2892,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3003,6 +2942,116 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3011,11 +3060,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -17945,7 +17994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4469F8DE-1282-404F-A51B-CF5242391DAD}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -17965,17 +18014,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18032,46 +18081,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18090,19 +18139,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18111,19 +18160,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -18132,19 +18181,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -18153,13 +18202,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18167,67 +18216,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18247,57 +18296,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18317,36 +18366,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18365,8 +18414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62F527A-E354-4462-9BFF-3499C7CB8091}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18378,24 +18427,24 @@
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18412,19 +18461,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="104" t="s">
+        <v>69</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="101" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18444,40 +18501,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="C5" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18496,19 +18559,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18517,39 +18580,55 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="35">
+        <v>6</v>
+      </c>
+      <c r="G10" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="35">
+        <v>4</v>
+      </c>
+      <c r="G11" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18557,67 +18636,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18637,57 +18716,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18707,36 +18786,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18775,17 +18854,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18834,40 +18913,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18886,19 +18965,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18907,39 +18986,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18947,67 +19026,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19027,57 +19106,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19097,36 +19176,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19165,17 +19244,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19224,40 +19303,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19276,19 +19355,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19297,39 +19376,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19337,67 +19416,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19417,57 +19496,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19487,36 +19566,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19555,17 +19634,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19614,40 +19693,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19666,19 +19745,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19687,39 +19766,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19727,67 +19806,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19807,57 +19886,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19877,36 +19956,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19945,17 +20024,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20004,40 +20083,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20056,19 +20135,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20077,39 +20156,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20117,67 +20196,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20197,57 +20276,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20267,36 +20346,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20335,17 +20414,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20394,40 +20473,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20446,19 +20525,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20467,39 +20546,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20507,67 +20586,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20587,57 +20666,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20657,36 +20736,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20725,17 +20804,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20784,40 +20863,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20836,19 +20915,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20857,39 +20936,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20897,67 +20976,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20977,57 +21056,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21047,36 +21126,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21115,17 +21194,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21174,40 +21253,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21226,19 +21305,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21247,39 +21326,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21287,67 +21366,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21367,57 +21446,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21437,36 +21516,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22070,17 +22149,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22135,46 +22214,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22193,19 +22272,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22214,19 +22293,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>1.5</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -22235,19 +22314,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -22256,19 +22335,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -22277,19 +22356,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="136" t="s">
+      <c r="G13" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
@@ -22298,19 +22377,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35">
         <v>0.5</v>
       </c>
-      <c r="G14" s="136" t="s">
+      <c r="G14" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="102" t="s">
         <v>58</v>
       </c>
@@ -22319,42 +22398,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22374,57 +22453,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22444,36 +22523,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22512,17 +22591,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22577,46 +22656,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22635,19 +22714,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22656,19 +22735,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -22677,19 +22756,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>8</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -22698,19 +22777,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -22720,67 +22799,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22800,57 +22879,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22870,12 +22949,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -22884,22 +22973,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22938,17 +23017,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23005,46 +23084,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23063,19 +23142,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23084,19 +23163,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23105,19 +23184,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23126,19 +23205,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23148,67 +23227,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23228,57 +23307,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23298,36 +23377,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23366,17 +23445,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23433,46 +23512,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23491,19 +23570,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23512,19 +23591,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23533,19 +23612,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23554,19 +23633,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23576,67 +23655,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23656,57 +23735,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23726,36 +23805,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23794,17 +23873,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23859,46 +23938,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23917,19 +23996,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23938,19 +24017,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23959,19 +24038,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23980,19 +24059,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -24002,67 +24081,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24082,57 +24161,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24152,36 +24231,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24220,17 +24299,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24285,46 +24364,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24343,19 +24422,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24364,19 +24443,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -24385,19 +24464,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -24406,19 +24485,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -24430,16 +24509,16 @@
       <c r="C13" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
@@ -24448,55 +24527,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24516,57 +24595,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24586,36 +24665,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
+++ b/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82765\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D533EA-012B-4A96-9B4D-ED042E352890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B17DDBA-8CBA-4AE9-B731-D06DE5E8E250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="119">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1425,6 +1425,59 @@
   </si>
   <si>
     <t>小组讨论共同完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次代码审核</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码审核</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>qss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的基本知识</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目框架，补全未完成代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师上课进行了讲评，指出了我们的缺点，为我们指明了需要完成的功能。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组交流合作共同完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -18414,8 +18467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62F527A-E354-4462-9BFF-3499C7CB8091}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18834,8 +18887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880768F8-B191-4A62-86DD-4F1D64E96FC2}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18847,7 +18900,7 @@
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -18881,19 +18934,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="104" t="s">
+        <v>69</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="101" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18913,7 +18974,9 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="157"/>
+      <c r="C5" s="111" t="s">
+        <v>113</v>
+      </c>
       <c r="D5" s="112"/>
       <c r="E5" s="112"/>
       <c r="F5" s="112"/>
@@ -18926,7 +18989,9 @@
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
+      <c r="C6" s="114" t="s">
+        <v>112</v>
+      </c>
       <c r="D6" s="115"/>
       <c r="E6" s="115"/>
       <c r="F6" s="115"/>
@@ -18939,7 +19004,9 @@
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
+      <c r="C7" s="117" t="s">
+        <v>112</v>
+      </c>
       <c r="D7" s="118"/>
       <c r="E7" s="118"/>
       <c r="F7" s="118"/>
@@ -18986,40 +19053,64 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
+      <c r="C10" s="123" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" s="124"/>
       <c r="E10" s="124"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
+      <c r="F10" s="35">
+        <v>4</v>
+      </c>
+      <c r="G10" s="125" t="s">
+        <v>117</v>
+      </c>
       <c r="H10" s="126"/>
       <c r="I10" s="127"/>
-      <c r="J10" s="36"/>
+      <c r="J10" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
+      <c r="C11" s="128" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" s="124"/>
       <c r="E11" s="124"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
+      <c r="F11" s="35">
+        <v>4</v>
+      </c>
+      <c r="G11" s="125" t="s">
+        <v>110</v>
+      </c>
       <c r="H11" s="126"/>
       <c r="I11" s="127"/>
-      <c r="J11" s="36"/>
+      <c r="J11" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
+      <c r="C12" s="123" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" s="124"/>
       <c r="E12" s="124"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
+      <c r="F12" s="35">
+        <v>3</v>
+      </c>
+      <c r="G12" s="125" t="s">
+        <v>118</v>
+      </c>
       <c r="H12" s="126"/>
       <c r="I12" s="127"/>
-      <c r="J12" s="36"/>
+      <c r="J12" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
@@ -19082,7 +19173,7 @@
       <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G17" s="137"/>
       <c r="H17" s="138"/>
@@ -24280,7 +24371,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:I16"/>
+      <selection activeCell="G11" sqref="G11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
+++ b/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82765\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B17DDBA-8CBA-4AE9-B731-D06DE5E8E250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5572680-2EF9-43EB-9C98-A88E3F5FD97D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="124">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1478,6 +1478,51 @@
   </si>
   <si>
     <t>小组交流合作共同完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目代码编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.14--2021.01.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目功能与代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多条件查询</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2945,6 +2990,116 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2994,116 +3149,6 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -18067,17 +18112,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18137,43 +18182,43 @@
       <c r="C5" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18192,19 +18237,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18213,19 +18258,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -18234,19 +18279,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -18255,13 +18300,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18269,67 +18314,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18349,57 +18394,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18419,36 +18464,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18487,17 +18532,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18554,46 +18599,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18612,19 +18657,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18633,19 +18678,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -18654,19 +18699,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -18675,13 +18720,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18689,67 +18734,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18769,57 +18814,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18839,36 +18884,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18887,8 +18932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880768F8-B191-4A62-86DD-4F1D64E96FC2}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:I12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18907,17 +18952,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18974,46 +19019,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19032,19 +19077,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19053,19 +19098,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -19074,19 +19119,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -19095,19 +19140,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -19117,67 +19162,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19197,57 +19242,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19267,36 +19312,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19315,8 +19360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA8069A-53C6-4F31-94F3-93A29CF46356}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19328,24 +19373,24 @@
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19362,19 +19407,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="104" t="s">
+        <v>69</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="101" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19394,40 +19447,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="C5" s="142" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="C7" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19446,19 +19505,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19467,39 +19526,55 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="138" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="35">
+        <v>9</v>
+      </c>
+      <c r="G10" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="35">
+        <v>3</v>
+      </c>
+      <c r="G11" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19507,67 +19582,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+        <v>12</v>
+      </c>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19587,57 +19662,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19657,36 +19732,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19725,17 +19800,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19785,39 +19860,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19836,19 +19911,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19857,39 +19932,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19897,67 +19972,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19977,57 +20052,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20047,36 +20122,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20115,17 +20190,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20175,39 +20250,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20226,19 +20301,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20247,39 +20322,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20287,67 +20362,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20367,57 +20442,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20437,36 +20512,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20505,17 +20580,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20565,39 +20640,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20616,19 +20691,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20637,39 +20712,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20677,67 +20752,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20757,57 +20832,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20827,36 +20902,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20895,17 +20970,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20955,39 +21030,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21006,19 +21081,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21027,39 +21102,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21067,67 +21142,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21147,57 +21222,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21217,36 +21292,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21285,17 +21360,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21345,39 +21420,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21396,19 +21471,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21417,39 +21492,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21457,67 +21532,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21537,57 +21612,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21607,36 +21682,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22240,17 +22315,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22305,46 +22380,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22363,19 +22438,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22384,19 +22459,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>1.5</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -22405,19 +22480,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -22426,19 +22501,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -22447,19 +22522,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
@@ -22468,19 +22543,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35">
         <v>0.5</v>
       </c>
-      <c r="G14" s="129" t="s">
+      <c r="G14" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="102" t="s">
         <v>58</v>
       </c>
@@ -22489,42 +22564,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22544,57 +22619,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22614,36 +22689,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22682,17 +22757,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22747,46 +22822,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22805,19 +22880,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22826,19 +22901,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -22847,19 +22922,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>8</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -22868,19 +22943,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -22890,67 +22965,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22970,57 +23045,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23040,6 +23115,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -23048,28 +23145,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23108,17 +23183,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23175,46 +23250,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23233,19 +23308,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23254,19 +23329,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23275,19 +23350,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23296,19 +23371,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23318,67 +23393,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23398,57 +23473,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23468,36 +23543,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23536,17 +23611,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23603,46 +23678,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23661,19 +23736,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23682,19 +23757,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23703,19 +23778,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23724,19 +23799,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23746,67 +23821,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23826,57 +23901,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23896,36 +23971,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23964,17 +24039,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24029,46 +24104,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24087,19 +24162,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24108,19 +24183,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -24129,19 +24204,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -24150,19 +24225,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -24172,67 +24247,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24252,57 +24327,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24322,36 +24397,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24390,17 +24465,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24455,46 +24530,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24513,19 +24588,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24534,19 +24609,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -24555,19 +24630,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -24576,19 +24651,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -24600,16 +24675,16 @@
       <c r="C13" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="125" t="s">
+      <c r="G13" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
@@ -24618,55 +24693,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24686,57 +24761,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24756,36 +24831,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
+++ b/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82765\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5572680-2EF9-43EB-9C98-A88E3F5FD97D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AEBBCF-20CC-41F8-B78B-E79A26ED4C0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="125">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1525,6 +1525,10 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2021.01.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2990,116 +2994,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3149,6 +3043,116 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -18112,17 +18116,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18182,43 +18186,43 @@
       <c r="C5" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18237,19 +18241,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18258,19 +18262,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -18279,19 +18283,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -18300,13 +18304,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18314,67 +18318,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18394,57 +18398,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18464,36 +18468,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18532,17 +18536,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18599,46 +18603,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18657,19 +18661,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18678,19 +18682,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -18699,19 +18703,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -18720,13 +18724,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18734,67 +18738,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18814,57 +18818,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18884,36 +18888,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18952,17 +18956,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19019,46 +19023,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19077,19 +19081,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19098,19 +19102,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -19119,19 +19123,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -19140,19 +19144,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -19162,67 +19166,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19242,57 +19246,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19312,36 +19316,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19360,8 +19364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA8069A-53C6-4F31-94F3-93A29CF46356}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19380,17 +19384,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19447,46 +19451,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19505,19 +19509,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19526,19 +19530,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>9</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -19547,19 +19551,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -19568,13 +19572,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19582,67 +19586,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19662,57 +19666,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19732,36 +19736,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19780,8 +19784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B179F8-9BAB-41EB-9C35-C2AD4D61FFBF}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19793,24 +19797,23 @@
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.59765625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19827,19 +19830,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="104" t="s">
+        <v>69</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="101" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19859,40 +19870,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="C5" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19911,19 +19928,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19932,39 +19949,47 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="35">
+        <v>12</v>
+      </c>
+      <c r="G10" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19972,67 +19997,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+        <v>12</v>
+      </c>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20052,57 +20077,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20122,36 +20147,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20190,17 +20215,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20250,39 +20275,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20301,19 +20326,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20322,39 +20347,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20362,67 +20387,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20442,57 +20467,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20512,36 +20537,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20580,17 +20605,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20640,39 +20665,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20691,19 +20716,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20712,39 +20737,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20752,67 +20777,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20832,57 +20857,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20902,36 +20927,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20970,17 +20995,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21030,39 +21055,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21081,19 +21106,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21102,39 +21127,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21142,67 +21167,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21222,57 +21247,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21292,36 +21317,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21360,17 +21385,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21420,39 +21445,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21471,19 +21496,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21492,39 +21517,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21532,67 +21557,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21612,57 +21637,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21682,36 +21707,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22315,17 +22340,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22380,46 +22405,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22438,19 +22463,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22459,19 +22484,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>1.5</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -22480,19 +22505,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -22501,19 +22526,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -22522,19 +22547,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="136" t="s">
+      <c r="G13" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
@@ -22543,19 +22568,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35">
         <v>0.5</v>
       </c>
-      <c r="G14" s="136" t="s">
+      <c r="G14" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="102" t="s">
         <v>58</v>
       </c>
@@ -22564,42 +22589,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22619,57 +22644,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22689,36 +22714,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22757,17 +22782,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22822,46 +22847,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22880,19 +22905,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22901,19 +22926,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -22922,19 +22947,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>8</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -22943,19 +22968,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -22965,67 +22990,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23045,57 +23070,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23115,12 +23140,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -23129,22 +23164,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23183,17 +23208,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23250,46 +23275,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23308,19 +23333,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23329,19 +23354,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23350,19 +23375,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23371,19 +23396,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23393,67 +23418,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23473,57 +23498,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23543,36 +23568,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23611,17 +23636,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23678,46 +23703,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23736,19 +23761,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23757,19 +23782,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23778,19 +23803,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23799,19 +23824,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23821,67 +23846,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23901,57 +23926,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23971,36 +23996,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24039,17 +24064,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24104,46 +24129,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24162,19 +24187,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24183,19 +24208,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -24204,19 +24229,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -24225,19 +24250,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -24247,67 +24272,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24327,57 +24352,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24397,36 +24422,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24465,17 +24490,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24530,46 +24555,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24588,19 +24613,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24609,19 +24634,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -24630,19 +24655,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -24651,19 +24676,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -24675,16 +24700,16 @@
       <c r="C13" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
@@ -24693,55 +24718,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24761,57 +24786,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24831,36 +24856,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
+++ b/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82765\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AEBBCF-20CC-41F8-B78B-E79A26ED4C0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3FAABD-A088-4F83-8021-1F1259A61F96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="128">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1529,6 +1529,18 @@
     <t>2021.01.15</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2021.01.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021。01.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习qt构建表格知识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2994,6 +3006,116 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3043,116 +3165,6 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -18116,17 +18128,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18186,43 +18198,43 @@
       <c r="C5" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18241,19 +18253,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18262,19 +18274,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -18283,19 +18295,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -18304,13 +18316,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18318,67 +18330,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18398,57 +18410,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18468,36 +18480,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18536,17 +18548,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18603,46 +18615,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18661,19 +18673,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18682,19 +18694,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -18703,19 +18715,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -18724,13 +18736,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18738,67 +18750,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18818,57 +18830,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18888,36 +18900,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18956,17 +18968,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19023,46 +19035,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19081,19 +19093,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19102,19 +19114,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -19123,19 +19135,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -19144,19 +19156,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -19166,67 +19178,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19246,57 +19258,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19316,36 +19328,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19384,17 +19396,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19451,46 +19463,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19509,19 +19521,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19530,19 +19542,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>9</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -19551,19 +19563,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -19572,13 +19584,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19586,67 +19598,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19666,57 +19678,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19736,36 +19748,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19784,8 +19796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B179F8-9BAB-41EB-9C35-C2AD4D61FFBF}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19803,17 +19815,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19870,46 +19882,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19928,19 +19940,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19949,19 +19961,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>12</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -19970,26 +19982,26 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19997,67 +20009,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20077,57 +20089,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20147,36 +20159,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20195,8 +20207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2BEE34-1D58-4192-8CFE-2E442CF9B47D}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -20208,24 +20220,24 @@
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20242,19 +20254,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="104" t="s">
+        <v>69</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="101" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20274,40 +20294,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="C5" s="142" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="C7" s="148" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20326,19 +20352,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20347,39 +20373,55 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="138" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="35">
+        <v>4</v>
+      </c>
+      <c r="G10" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="138" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="35">
+        <v>8</v>
+      </c>
+      <c r="G11" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20387,67 +20429,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+        <v>12</v>
+      </c>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20467,57 +20509,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20537,36 +20579,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20605,17 +20647,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20665,39 +20707,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20716,19 +20758,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20737,39 +20779,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20777,67 +20819,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20857,57 +20899,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20927,36 +20969,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20995,17 +21037,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21055,39 +21097,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21106,19 +21148,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21127,39 +21169,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21167,67 +21209,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21247,57 +21289,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21317,36 +21359,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21385,17 +21427,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21445,39 +21487,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21496,19 +21538,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21517,39 +21559,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21557,67 +21599,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21637,57 +21679,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21707,36 +21749,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22340,17 +22382,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22405,46 +22447,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22463,19 +22505,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22484,19 +22526,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>1.5</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -22505,19 +22547,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -22526,19 +22568,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -22547,19 +22589,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
@@ -22568,19 +22610,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35">
         <v>0.5</v>
       </c>
-      <c r="G14" s="129" t="s">
+      <c r="G14" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="102" t="s">
         <v>58</v>
       </c>
@@ -22589,42 +22631,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22644,57 +22686,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22714,36 +22756,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22782,17 +22824,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22847,46 +22889,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22905,19 +22947,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22926,19 +22968,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -22947,19 +22989,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>8</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -22968,19 +23010,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -22990,67 +23032,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23070,57 +23112,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23140,6 +23182,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -23148,28 +23212,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23208,17 +23250,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23275,46 +23317,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23333,19 +23375,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23354,19 +23396,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23375,19 +23417,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23396,19 +23438,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23418,67 +23460,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23498,57 +23540,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23568,36 +23610,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23636,17 +23678,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23703,46 +23745,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23761,19 +23803,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23782,19 +23824,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23803,19 +23845,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23824,19 +23866,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23846,67 +23888,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23926,57 +23968,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23996,36 +24038,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24064,17 +24106,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24129,46 +24171,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24187,19 +24229,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24208,19 +24250,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -24229,19 +24271,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -24250,19 +24292,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -24272,67 +24314,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24352,57 +24394,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24422,36 +24464,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24490,17 +24532,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24555,46 +24597,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24613,19 +24655,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24634,19 +24676,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -24655,19 +24697,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -24676,19 +24718,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -24700,16 +24742,16 @@
       <c r="C13" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="125" t="s">
+      <c r="G13" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
@@ -24718,55 +24760,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24786,57 +24828,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24856,36 +24898,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
+++ b/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82765\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3FAABD-A088-4F83-8021-1F1259A61F96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B936ED-9631-4811-9869-4D98E5839D95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4404" yWindow="132" windowWidth="17268" windowHeight="9324" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="134">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1541,6 +1541,30 @@
     <t>学习qt构建表格知识</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2021.01.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计报告，答辩报告的编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码修改与完善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计报告、答辩报告的编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理细节、完善代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据实际情况编写报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3006,116 +3030,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3165,6 +3079,116 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -18128,17 +18152,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18198,43 +18222,43 @@
       <c r="C5" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18253,19 +18277,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18274,19 +18298,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -18295,19 +18319,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -18316,13 +18340,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18330,67 +18354,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18410,57 +18434,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18480,36 +18504,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18548,17 +18572,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18615,46 +18639,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18673,19 +18697,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18694,19 +18718,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -18715,19 +18739,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -18736,13 +18760,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18750,67 +18774,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18830,57 +18854,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18900,36 +18924,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18968,17 +18992,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19035,46 +19059,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19093,19 +19117,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19114,19 +19138,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -19135,19 +19159,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -19156,19 +19180,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -19178,67 +19202,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19258,57 +19282,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19328,36 +19352,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19396,17 +19420,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19463,46 +19487,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19521,19 +19545,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19542,19 +19566,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>9</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -19563,19 +19587,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -19584,13 +19608,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19598,67 +19622,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19678,57 +19702,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19748,36 +19772,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19815,17 +19839,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19882,46 +19906,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19940,19 +19964,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19961,19 +19985,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>12</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -19982,26 +20006,26 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20009,67 +20033,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20089,57 +20113,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20159,36 +20183,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20207,7 +20231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2BEE34-1D58-4192-8CFE-2E442CF9B47D}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
@@ -20227,17 +20251,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20294,46 +20318,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20352,19 +20376,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20373,19 +20397,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -20394,19 +20418,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>8</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -20415,13 +20439,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20429,67 +20453,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20509,57 +20533,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20579,36 +20603,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20627,8 +20651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB183E49-FD17-4ED3-9BDA-39A3D6CD0C15}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -20640,24 +20664,24 @@
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.296875" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20672,21 +20696,27 @@
     </row>
     <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B3" s="5" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="101" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20706,40 +20736,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="C5" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20758,19 +20794,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20779,39 +20815,55 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="123" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="35">
+        <v>4</v>
+      </c>
+      <c r="G10" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="123" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="35">
+        <v>6</v>
+      </c>
+      <c r="G11" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20819,67 +20871,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20899,57 +20951,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20969,36 +21021,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21037,17 +21089,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21097,39 +21149,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21148,19 +21200,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21169,39 +21221,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21209,67 +21261,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21289,57 +21341,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21359,36 +21411,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21427,17 +21479,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21487,39 +21539,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21538,19 +21590,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21559,39 +21611,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21599,67 +21651,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21679,57 +21731,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21749,36 +21801,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22382,17 +22434,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22447,46 +22499,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22505,19 +22557,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22526,19 +22578,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>1.5</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -22547,19 +22599,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -22568,19 +22620,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -22589,19 +22641,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="136" t="s">
+      <c r="G13" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
@@ -22610,19 +22662,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35">
         <v>0.5</v>
       </c>
-      <c r="G14" s="136" t="s">
+      <c r="G14" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="102" t="s">
         <v>58</v>
       </c>
@@ -22631,42 +22683,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22686,57 +22738,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22756,36 +22808,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22824,17 +22876,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22889,46 +22941,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22947,19 +22999,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22968,19 +23020,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -22989,19 +23041,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>8</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23010,19 +23062,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23032,67 +23084,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23112,57 +23164,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23182,12 +23234,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -23196,22 +23258,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23250,17 +23302,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23317,46 +23369,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23375,19 +23427,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23396,19 +23448,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23417,19 +23469,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23438,19 +23490,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23460,67 +23512,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23540,57 +23592,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23610,36 +23662,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23678,17 +23730,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23745,46 +23797,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23803,19 +23855,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23824,19 +23876,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23845,19 +23897,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23866,19 +23918,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23888,67 +23940,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23968,57 +24020,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24038,36 +24090,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24106,17 +24158,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24171,46 +24223,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24229,19 +24281,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24250,19 +24302,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -24271,19 +24323,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -24292,19 +24344,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -24314,67 +24366,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24394,57 +24446,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24464,36 +24516,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24532,17 +24584,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24597,46 +24649,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24655,19 +24707,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24676,19 +24728,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -24697,19 +24749,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -24718,19 +24770,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -24742,16 +24794,16 @@
       <c r="C13" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
@@ -24760,55 +24812,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24828,57 +24880,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24898,36 +24950,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
+++ b/学生提交材料/个人日报/个人日报_陈嘉泽.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82765\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B936ED-9631-4811-9869-4D98E5839D95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB63A44-EA10-4C24-9D40-920324C3803C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="132" windowWidth="17268" windowHeight="9324" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="141">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1565,12 +1565,72 @@
     <t>根据实际情况编写报告</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2021.01.18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成实训总结和答辩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PPT</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成实训总结</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成答辩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PPT</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合自身情况如实填写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内沟通交流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="69">
+  <fonts count="70">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2003,6 +2063,12 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -2682,7 +2748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3030,6 +3096,116 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3080,116 +3256,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3203,6 +3269,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -18152,17 +18222,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18222,43 +18292,43 @@
       <c r="C5" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18277,19 +18347,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18298,19 +18368,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -18319,19 +18389,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -18340,13 +18410,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18354,67 +18424,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18434,57 +18504,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18504,36 +18574,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18572,17 +18642,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18639,46 +18709,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18697,19 +18767,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18718,19 +18788,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -18739,19 +18809,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -18760,13 +18830,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18774,67 +18844,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18854,57 +18924,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18924,36 +18994,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18992,17 +19062,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19059,46 +19129,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19117,19 +19187,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19138,19 +19208,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -19159,19 +19229,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -19180,19 +19250,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -19202,67 +19272,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19282,57 +19352,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19352,36 +19422,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19420,17 +19490,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19487,46 +19557,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19545,19 +19615,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19566,19 +19636,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>9</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -19587,19 +19657,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -19608,13 +19678,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19622,67 +19692,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19702,57 +19772,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19772,36 +19842,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19839,17 +19909,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19906,46 +19976,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19964,19 +20034,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19985,19 +20055,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>12</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -20006,26 +20076,26 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20033,67 +20103,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20113,57 +20183,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20183,36 +20253,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20251,17 +20321,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20318,46 +20388,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20376,19 +20446,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20397,19 +20467,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -20418,19 +20488,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>8</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -20439,13 +20509,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20453,67 +20523,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20533,57 +20603,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20603,36 +20673,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20651,8 +20721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB183E49-FD17-4ED3-9BDA-39A3D6CD0C15}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -20671,17 +20741,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20736,46 +20806,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20794,19 +20864,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20815,19 +20885,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -20836,19 +20906,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -20857,13 +20927,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20871,67 +20941,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20951,57 +21021,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21021,36 +21091,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21069,8 +21139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24070CB-2DC6-4C56-93AF-28AE93842DD6}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -21082,24 +21152,24 @@
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.296875" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21114,21 +21184,27 @@
     </row>
     <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="C3" s="104"/>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="101" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21148,40 +21224,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="C5" s="158" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="145" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="C7" s="148" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21200,19 +21282,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21221,107 +21303,131 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="138" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="35">
+        <v>1</v>
+      </c>
+      <c r="G10" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="137" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="35">
+        <v>4</v>
+      </c>
+      <c r="G11" s="139" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="36"/>
+      <c r="C12" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="35">
+        <v>5</v>
+      </c>
+      <c r="G12" s="139" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21341,57 +21447,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21411,39 +21517,39 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{24B0DEBA-D745-4D89-B5EA-85BF97DFF1D2}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{41B6D9F7-1418-4FD8-B958-422D64B27D9E}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{4DF27BE3-BD5E-4501-8177-D086C9737F30}"/>
@@ -21479,17 +21585,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21539,39 +21645,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="157"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21590,19 +21696,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21611,39 +21717,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21651,67 +21757,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21731,57 +21837,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21801,36 +21907,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22434,17 +22540,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22499,46 +22605,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22557,19 +22663,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22578,19 +22684,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>1.5</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -22599,19 +22705,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -22620,19 +22726,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -22641,19 +22747,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
@@ -22662,19 +22768,19 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35">
         <v>0.5</v>
       </c>
-      <c r="G14" s="129" t="s">
+      <c r="G14" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="102" t="s">
         <v>58</v>
       </c>
@@ -22683,42 +22789,42 @@
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22738,57 +22844,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22808,36 +22914,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22876,17 +22982,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22941,46 +23047,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22999,19 +23105,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23020,19 +23126,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23041,19 +23147,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>8</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23062,19 +23168,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23084,67 +23190,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23164,57 +23270,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23234,6 +23340,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -23242,28 +23370,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23302,17 +23408,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23369,46 +23475,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23427,19 +23533,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23448,19 +23554,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23469,19 +23575,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23490,19 +23596,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23512,67 +23618,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23592,57 +23698,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23662,36 +23768,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23730,17 +23836,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23797,46 +23903,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23855,19 +23961,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23876,19 +23982,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -23897,19 +24003,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -23918,19 +24024,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -23940,67 +24046,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24020,57 +24126,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24090,36 +24196,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24158,17 +24264,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24223,46 +24329,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24281,19 +24387,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24302,19 +24408,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -24323,19 +24429,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -24344,19 +24450,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -24366,67 +24472,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24446,57 +24552,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24516,36 +24622,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24584,17 +24690,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24649,46 +24755,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24707,19 +24813,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24728,19 +24834,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="102" t="s">
         <v>58</v>
       </c>
@@ -24749,19 +24855,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="102" t="s">
         <v>58</v>
       </c>
@@ -24770,19 +24876,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="102" t="s">
         <v>58</v>
       </c>
@@ -24794,16 +24900,16 @@
       <c r="C13" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="125" t="s">
+      <c r="G13" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="102" t="s">
         <v>58</v>
       </c>
@@ -24812,55 +24918,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24880,57 +24986,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24950,36 +25056,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
